--- a/result_1/Reentrancy.xlsx
+++ b/result_1/Reentrancy.xlsx
@@ -1,43 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A27B6-30E8-4CCD-AB8F-660038D3D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>contract address</t>
+  </si>
+  <si>
+    <t>0x01f8c4e3fa3edeb29e514cba738d87ce8c091d3f</t>
+  </si>
+  <si>
+    <t>0x14cf6193935b17fc72649ba420fdd5bfdf1f0001</t>
+  </si>
+  <si>
+    <t>0x1641dba4593e32528bd8937fc751901dc66aa60e</t>
+  </si>
+  <si>
+    <t>0x23a91059fdc9579a9fbd0edc5f2ea0bfdb70deb4</t>
+  </si>
+  <si>
+    <t>0x3f500a7e3783fbd228ddb894de2db110eed83a5b</t>
+  </si>
+  <si>
+    <t>0x40eac8f2702758275abbbda2881708f82c417a7f</t>
+  </si>
+  <si>
+    <t>0x4320e6f8c05b27ab4707cd1f6d5ce6f3e4b3a5a1</t>
+  </si>
+  <si>
+    <t>0x4e73b32ed6c35f570686b89848e5f39f20ecc106</t>
+  </si>
+  <si>
+    <t>0x561eac93c92360949ab1f1403323e6db345cbf31</t>
+  </si>
+  <si>
+    <t>0x627fa62ccbb1c1b04ffaecd72a53e37fc0e17839</t>
+  </si>
+  <si>
+    <t>0x7a8721a9d64c74da899424c1b52acbf58ddc9782</t>
+  </si>
+  <si>
+    <t>0x7b368c4e805c3870b6c49a3f1f49f69af8662cf3</t>
+  </si>
+  <si>
+    <t>0x8c7777c45481dba411450c228cb692ac3d550344</t>
+  </si>
+  <si>
+    <t>0x93c32845fae42c83a70e5f06214c8433665c2ab5</t>
+  </si>
+  <si>
+    <t>0x941d225236464a25eb18076df7da6a91d0f95e9e</t>
+  </si>
+  <si>
+    <t>0x96edbe868531bd23a6c05e9d0c424ea64fb1b78b</t>
+  </si>
+  <si>
+    <t>0xaae1f51cf3339f18b6d3f3bdc75a5facd744b0b8</t>
+  </si>
+  <si>
+    <t>0xb5e1b1ee15c6fa0e48fce100125569d430f1bd12</t>
+  </si>
+  <si>
+    <t>0xb93430ce38ac4a6bb47fb1fc085ea669353fd89e</t>
+  </si>
+  <si>
+    <t>0xbaf51e761510c1a11bf48dd87c0307ac8a8c8a4f</t>
+  </si>
+  <si>
+    <t>0xbe4041d55db380c5ae9d4a9b9703f1ed4e7e3888</t>
+  </si>
+  <si>
+    <t>0xcead721ef5b11f1a7b530171aab69b16c5e66b6e</t>
+  </si>
+  <si>
+    <t>0xf015c35649c82f5467c9c74b7f28ee67665aad68</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +130,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,188 +437,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>contract address</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0x01f8c4e3fa3edeb29e514cba738d87ce8c091d3f</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0x14cf6193935b17fc72649ba420fdd5bfdf1f0001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0x1641dba4593e32528bd8937fc751901dc66aa60e</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0x23a91059fdc9579a9fbd0edc5f2ea0bfdb70deb4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0x3f500a7e3783fbd228ddb894de2db110eed83a5b</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0x40eac8f2702758275abbbda2881708f82c417a7f</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0x4320e6f8c05b27ab4707cd1f6d5ce6f3e4b3a5a1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0x4e73b32ed6c35f570686b89848e5f39f20ecc106</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>0x561eac93c92360949ab1f1403323e6db345cbf31</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>0x627fa62ccbb1c1b04ffaecd72a53e37fc0e17839</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0x7a8721a9d64c74da899424c1b52acbf58ddc9782</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0x7b368c4e805c3870b6c49a3f1f49f69af8662cf3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>0x8c7777c45481dba411450c228cb692ac3d550344</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>0x93c32845fae42c83a70e5f06214c8433665c2ab5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>0x941d225236464a25eb18076df7da6a91d0f95e9e</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>0x96edbe868531bd23a6c05e9d0c424ea64fb1b78b</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>0xaae1f51cf3339f18b6d3f3bdc75a5facd744b0b8</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>0xb5e1b1ee15c6fa0e48fce100125569d430f1bd12</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>0xb93430ce38ac4a6bb47fb1fc085ea669353fd89e</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>0xbaf51e761510c1a11bf48dd87c0307ac8a8c8a4f</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>0xbe4041d55db380c5ae9d4a9b9703f1ed4e7e3888</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0xcead721ef5b11f1a7b530171aab69b16c5e66b6e</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>0xf015c35649c82f5467c9c74b7f28ee67665aad68</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/result_1/Reentrancy.xlsx
+++ b/result_1/Reentrancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A27B6-30E8-4CCD-AB8F-660038D3D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B8529-A35A-4919-A9FF-3F4883639860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,201 +438,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/result_1/Reentrancy.xlsx
+++ b/result_1/Reentrancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B8529-A35A-4919-A9FF-3F4883639860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44718316-F302-4A14-88E9-B75E24FDC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/result_1/Reentrancy.xlsx
+++ b/result_1/Reentrancy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44718316-F302-4A14-88E9-B75E24FDC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FFA7A3-4356-415A-8B13-32D7DCC3D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16344" yWindow="3648" windowWidth="12144" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
